--- a/data/trans_orig/P62A$invalidez-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P62A$invalidez-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>15839</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9783</v>
+        <v>9445</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23952</v>
+        <v>25155</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09256520539558745</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05717307620047529</v>
+        <v>0.05519607765484811</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1399796556464084</v>
+        <v>0.1470108643124148</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -765,19 +765,19 @@
         <v>10451</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5694</v>
+        <v>5465</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17368</v>
+        <v>17306</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08251976242255482</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0449580408073015</v>
+        <v>0.04314888669104493</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1371377689749567</v>
+        <v>0.1366468009268365</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -786,19 +786,19 @@
         <v>26290</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17894</v>
+        <v>17790</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36520</v>
+        <v>36420</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08829251737742873</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06009564233869922</v>
+        <v>0.05974737153444371</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1226514123347611</v>
+        <v>0.1223147126951571</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>153324</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>144957</v>
+        <v>144172</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>160405</v>
+        <v>160269</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8960534015616421</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8471565564069131</v>
+        <v>0.8425708968297376</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9374387925750953</v>
+        <v>0.9366415465400043</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -836,19 +836,19 @@
         <v>61166</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51846</v>
+        <v>50811</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72800</v>
+        <v>72487</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4829672027385539</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4093753984701719</v>
+        <v>0.4012029691548363</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5748299604266968</v>
+        <v>0.5723522209894811</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>221</v>
@@ -857,19 +857,19 @@
         <v>214490</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>199108</v>
+        <v>198554</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>229956</v>
+        <v>227846</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7203529912446138</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6686924966424791</v>
+        <v>0.6668328414265091</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.772293387624337</v>
+        <v>0.7652092917328064</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4758</v>
+        <v>4977</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005743186572295664</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02780669709613236</v>
+        <v>0.0290886937092226</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -907,19 +907,19 @@
         <v>4899</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1788</v>
+        <v>1825</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11133</v>
+        <v>10714</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03867989422798917</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01411780406247278</v>
+        <v>0.01441074616403911</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08790403130848205</v>
+        <v>0.0845945513619832</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -928,19 +928,19 @@
         <v>5881</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1992</v>
+        <v>2003</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12132</v>
+        <v>11808</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01975235237373107</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006688552735747858</v>
+        <v>0.00672714058459867</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04074599477636225</v>
+        <v>0.03965562692287235</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4787</v>
+        <v>5055</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005638206470474754</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02797663811359836</v>
+        <v>0.0295423187407204</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -978,19 +978,19 @@
         <v>51848</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40402</v>
+        <v>41142</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62843</v>
+        <v>63212</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4093873458416115</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3190101395948267</v>
+        <v>0.3248528573649113</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4962026126345153</v>
+        <v>0.4991214926330302</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -999,19 +999,19 @@
         <v>52812</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40177</v>
+        <v>41321</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65433</v>
+        <v>67902</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1773672297464052</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1349312142017239</v>
+        <v>0.1387746419963606</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2197545614202509</v>
+        <v>0.2280463510336873</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>20677</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13221</v>
+        <v>12360</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30040</v>
+        <v>30520</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09292368063296128</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05941486897932052</v>
+        <v>0.05554649525882263</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1349982673096332</v>
+        <v>0.1371576597021713</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -1053,19 +1053,19 @@
         <v>15101</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8759</v>
+        <v>9515</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24777</v>
+        <v>25352</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09845083158036255</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05710638458038831</v>
+        <v>0.06203221206697612</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1615338159916595</v>
+        <v>0.1652870534329547</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>34</v>
@@ -1074,19 +1074,19 @@
         <v>35778</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>25772</v>
+        <v>25420</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>48646</v>
+        <v>47777</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09517897849959256</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06856069150309212</v>
+        <v>0.06762422718987268</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1294112661973836</v>
+        <v>0.1270988981500202</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>199897</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>189603</v>
+        <v>189567</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>207219</v>
+        <v>208263</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8983278437911199</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8520678029463722</v>
+        <v>0.8519052657668346</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9312312200595956</v>
+        <v>0.935926166554514</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>40</v>
@@ -1124,19 +1124,19 @@
         <v>43236</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>32441</v>
+        <v>31801</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>54452</v>
+        <v>54160</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.281879321978618</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2115034903395721</v>
+        <v>0.2073294703687693</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3550059752087766</v>
+        <v>0.353102727402409</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>239</v>
@@ -1145,19 +1145,19 @@
         <v>243132</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>223119</v>
+        <v>223698</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>261487</v>
+        <v>261994</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6467922788387253</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.59355024242083</v>
+        <v>0.5950919028527983</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6956193427266268</v>
+        <v>0.6969675467979445</v>
       </c>
     </row>
     <row r="10">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4059</v>
+        <v>5341</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0039818336475091</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01823891793476209</v>
+        <v>0.02400431717794155</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1195,19 +1195,19 @@
         <v>6200</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2225</v>
+        <v>2026</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14204</v>
+        <v>13302</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04042072081065924</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01450525181696974</v>
+        <v>0.01321149440134721</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09260350599872248</v>
+        <v>0.08672507653866536</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1216,19 +1216,19 @@
         <v>7086</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2202</v>
+        <v>2561</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14844</v>
+        <v>15470</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01885035185219278</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005857071849598255</v>
+        <v>0.006813362727181595</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03948959442380443</v>
+        <v>0.04115341103719331</v>
       </c>
     </row>
     <row r="11">
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4275</v>
+        <v>5897</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004766641928409825</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01921015939949525</v>
+        <v>0.02650025761371146</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>85</v>
@@ -1266,19 +1266,19 @@
         <v>90939</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78324</v>
+        <v>78352</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>103481</v>
+        <v>102733</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.592882743326535</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5106412095937006</v>
+        <v>0.5108235360125151</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6746522316114067</v>
+        <v>0.6697759100378854</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>86</v>
@@ -1287,19 +1287,19 @@
         <v>92000</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>75452</v>
+        <v>76704</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>109899</v>
+        <v>110637</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2447414501862387</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2007204776946416</v>
+        <v>0.2040509452085301</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2923591790065324</v>
+        <v>0.29432271397404</v>
       </c>
     </row>
     <row r="12">
@@ -1320,19 +1320,19 @@
         <v>19574</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12397</v>
+        <v>12458</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28239</v>
+        <v>29785</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1267866124377988</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08029846210744669</v>
+        <v>0.08069189438220663</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1829124772551773</v>
+        <v>0.1929276683533079</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1341,19 +1341,19 @@
         <v>8841</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3918</v>
+        <v>3760</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16302</v>
+        <v>16733</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07379547130810214</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03270015755518307</v>
+        <v>0.03138348980743991</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1360669051852287</v>
+        <v>0.1396672315028742</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -1362,19 +1362,19 @@
         <v>28415</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>19317</v>
+        <v>19016</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>39056</v>
+        <v>39528</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1036323087229634</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07045014822005259</v>
+        <v>0.06935459290076</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1424413762820416</v>
+        <v>0.1441638933802728</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>132818</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>123695</v>
+        <v>122940</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>140376</v>
+        <v>140454</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8603118259266296</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8012135290342988</v>
+        <v>0.7963257168695728</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9092677345858402</v>
+        <v>0.9097712622159031</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -1412,19 +1412,19 @@
         <v>44850</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34941</v>
+        <v>35262</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56019</v>
+        <v>55820</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3743502583604725</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2916480447811067</v>
+        <v>0.2943252658231301</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4675803235002103</v>
+        <v>0.4659169640073372</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>176</v>
@@ -1433,19 +1433,19 @@
         <v>177668</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>161462</v>
+        <v>161365</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>192276</v>
+        <v>193074</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.647972527521551</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5888658523939867</v>
+        <v>0.5885126371928886</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7012499542276153</v>
+        <v>0.704159043635786</v>
       </c>
     </row>
     <row r="14">
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6891</v>
+        <v>6602</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01290156163557161</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04463409212995611</v>
+        <v>0.04276552937040047</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1483,19 +1483,19 @@
         <v>7775</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3831</v>
+        <v>3683</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14690</v>
+        <v>14572</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06489257822086937</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03197867517530043</v>
+        <v>0.03073764283322361</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1226174775209824</v>
+        <v>0.1216309975354036</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1504,19 +1504,19 @@
         <v>9766</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5101</v>
+        <v>5161</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17477</v>
+        <v>17667</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03561886424116505</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01860551119535741</v>
+        <v>0.01882307841571804</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0637400503110666</v>
+        <v>0.0644330411943194</v>
       </c>
     </row>
     <row r="15">
@@ -1546,19 +1546,19 @@
         <v>59415</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>48216</v>
+        <v>48075</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>70321</v>
+        <v>70186</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4959230176299163</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4024432554964673</v>
+        <v>0.4012692370469445</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5869493536823382</v>
+        <v>0.5858267302082567</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>59</v>
@@ -1567,19 +1567,19 @@
         <v>59415</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>46231</v>
+        <v>47286</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>75273</v>
+        <v>75125</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2166919210378301</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.168607445634804</v>
+        <v>0.1724568333234381</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2745263812582419</v>
+        <v>0.2739893917301806</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>16002</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8762</v>
+        <v>9386</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25369</v>
+        <v>26374</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08428485643415705</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04615112128375544</v>
+        <v>0.04943427953000039</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1336169262553326</v>
+        <v>0.1389139857290273</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1621,19 +1621,19 @@
         <v>13018</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7725</v>
+        <v>7031</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21184</v>
+        <v>22463</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07386072333367145</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04383227935974737</v>
+        <v>0.03989158457988884</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.120193362962118</v>
+        <v>0.1274526322672623</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -1642,19 +1642,19 @@
         <v>29020</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20261</v>
+        <v>19675</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42425</v>
+        <v>41695</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07926657637665856</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05534104747904828</v>
+        <v>0.05374224301294725</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1158811006126186</v>
+        <v>0.1138864070199863</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>171260</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>161558</v>
+        <v>160961</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>178666</v>
+        <v>178452</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.902033411452014</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8509309126804532</v>
+        <v>0.8477867566567184</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9410392849015423</v>
+        <v>0.9399146134522536</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>72</v>
@@ -1692,19 +1692,19 @@
         <v>75880</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>62247</v>
+        <v>62191</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>89393</v>
+        <v>89012</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4305317814861022</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3531778455218192</v>
+        <v>0.3528625090233561</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.507201569760093</v>
+        <v>0.505038301715058</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>263</v>
@@ -1713,19 +1713,19 @@
         <v>247140</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>226839</v>
+        <v>228265</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>263927</v>
+        <v>265550</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6750478958290654</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6195981907464665</v>
+        <v>0.6234931273949064</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7209004447110706</v>
+        <v>0.7253352345143391</v>
       </c>
     </row>
     <row r="18">
@@ -1745,16 +1745,16 @@
         <v>849</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7162</v>
+        <v>6942</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01368173211382898</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.00447078664212154</v>
+        <v>0.004469137052107277</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03772423662806985</v>
+        <v>0.0365617082389665</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -1763,19 +1763,19 @@
         <v>8329</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3984</v>
+        <v>4009</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15838</v>
+        <v>15651</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0472572833219833</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02260505704058124</v>
+        <v>0.02274649281492048</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08986254421263552</v>
+        <v>0.08879852377989063</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>11</v>
@@ -1784,19 +1784,19 @@
         <v>10927</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5321</v>
+        <v>5750</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>18264</v>
+        <v>18762</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0298453322351236</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01453521575653596</v>
+        <v>0.01570619806682473</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04988807617863057</v>
+        <v>0.05124681270192267</v>
       </c>
     </row>
     <row r="19">
@@ -1826,19 +1826,19 @@
         <v>81304</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>68053</v>
+        <v>68704</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>95119</v>
+        <v>95532</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4613073429490331</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3861223891503391</v>
+        <v>0.3898135637037844</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5396905862273207</v>
+        <v>0.5420307822775001</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -1847,19 +1847,19 @@
         <v>81304</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65858</v>
+        <v>65202</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>97874</v>
+        <v>97786</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2220778857275825</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1798876467837897</v>
+        <v>0.1780963404443056</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2673368570751377</v>
+        <v>0.26709699117953</v>
       </c>
     </row>
     <row r="20">
@@ -1880,19 +1880,19 @@
         <v>72092</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>57949</v>
+        <v>56949</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>88786</v>
+        <v>88848</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09770280915819703</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07853439492203861</v>
+        <v>0.07717931018446877</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1203262674879033</v>
+        <v>0.1204109775294884</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -1901,19 +1901,19 @@
         <v>47411</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35381</v>
+        <v>35563</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>62311</v>
+        <v>61287</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08229793987075504</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06141543492966444</v>
+        <v>0.06173126755344598</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1081631461637326</v>
+        <v>0.106384347923355</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>116</v>
@@ -1922,19 +1922,19 @@
         <v>119503</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>99951</v>
+        <v>99801</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>141147</v>
+        <v>140828</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0909487838000031</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07606866298187306</v>
+        <v>0.07595453400478651</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1074210541607521</v>
+        <v>0.1071782522606371</v>
       </c>
     </row>
     <row r="21">
@@ -1951,19 +1951,19 @@
         <v>657299</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>639461</v>
+        <v>638979</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>671984</v>
+        <v>672696</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8907998537697298</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8666245858242334</v>
+        <v>0.8659715833808598</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9107012951576557</v>
+        <v>0.9116667862157328</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>221</v>
@@ -1972,19 +1972,19 @@
         <v>225132</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>201796</v>
+        <v>203268</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>250649</v>
+        <v>250212</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.390796189483865</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.35028840902277</v>
+        <v>0.3528436991532604</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4350893710054947</v>
+        <v>0.4343306612705364</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>899</v>
@@ -1993,19 +1993,19 @@
         <v>882431</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>849902</v>
+        <v>845445</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>915469</v>
+        <v>917606</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6715810233620241</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6468242361207818</v>
+        <v>0.6434323146034792</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6967245768226348</v>
+        <v>0.6983512560598782</v>
       </c>
     </row>
     <row r="22">
@@ -2022,19 +2022,19 @@
         <v>6458</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2825</v>
+        <v>2661</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13031</v>
+        <v>13106</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008752382786893224</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00382867849808769</v>
+        <v>0.003605743727695019</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01766007390331516</v>
+        <v>0.01776120358006245</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -2043,19 +2043,19 @@
         <v>27202</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18639</v>
+        <v>17402</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38450</v>
+        <v>38165</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04721893638108128</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0323546080070905</v>
+        <v>0.03020704318614225</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06674302125870396</v>
+        <v>0.06624851495019894</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -2064,19 +2064,19 @@
         <v>33660</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23050</v>
+        <v>23968</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>46060</v>
+        <v>46452</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02561744496754178</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01754262505745434</v>
+        <v>0.01824129120381596</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03505453998732307</v>
+        <v>0.03535264077504194</v>
       </c>
     </row>
     <row r="23">
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7031</v>
+        <v>7452</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.002744954285179886</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.009528505820974182</v>
+        <v>0.01009954173770025</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>270</v>
@@ -2114,19 +2114,19 @@
         <v>283506</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>258716</v>
+        <v>259339</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>307967</v>
+        <v>307087</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4921244463497008</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4490928486730577</v>
+        <v>0.4501747203678709</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5345852155108695</v>
+        <v>0.5330574690076794</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>272</v>
@@ -2135,19 +2135,19 @@
         <v>285531</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>255741</v>
+        <v>253176</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>316443</v>
+        <v>316797</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2173057816125692</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1946335309514557</v>
+        <v>0.1926812353733689</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2408313748449762</v>
+        <v>0.2411003927838093</v>
       </c>
     </row>
     <row r="24">
@@ -2408,19 +2408,19 @@
         <v>32036</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22134</v>
+        <v>21370</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44784</v>
+        <v>45309</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1514977177845301</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1046728942224813</v>
+        <v>0.1010577692724907</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2117839412203799</v>
+        <v>0.214264207652614</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -2429,19 +2429,19 @@
         <v>13479</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7337</v>
+        <v>7214</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21932</v>
+        <v>22761</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08217490072981369</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04473113959973236</v>
+        <v>0.04397886698539233</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1337103456021716</v>
+        <v>0.1387639280220556</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -2450,19 +2450,19 @@
         <v>45515</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33902</v>
+        <v>32247</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60723</v>
+        <v>60044</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1212152430491752</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09028667153199227</v>
+        <v>0.08588090919503844</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1617164635157514</v>
+        <v>0.1599086687612161</v>
       </c>
     </row>
     <row r="5">
@@ -2479,19 +2479,19 @@
         <v>164553</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>150428</v>
+        <v>149979</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>177303</v>
+        <v>177434</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7781672458836907</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.71137061755385</v>
+        <v>0.7092465893666821</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8384605095405214</v>
+        <v>0.8390823844998221</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -2500,19 +2500,19 @@
         <v>69997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57279</v>
+        <v>57929</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82776</v>
+        <v>82579</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4267450315483451</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3492116147934981</v>
+        <v>0.3531690962850206</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5046553290865491</v>
+        <v>0.5034543321729796</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>221</v>
@@ -2521,19 +2521,19 @@
         <v>234550</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>214225</v>
+        <v>214210</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>252653</v>
+        <v>252593</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6246545241105275</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5705241022411968</v>
+        <v>0.5704833954309757</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6728659302491682</v>
+        <v>0.6727062985923874</v>
       </c>
     </row>
     <row r="6">
@@ -2550,19 +2550,19 @@
         <v>12798</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7086</v>
+        <v>7600</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22550</v>
+        <v>22014</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06052152809591753</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03351159910974302</v>
+        <v>0.03594032193238432</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1066376003030554</v>
+        <v>0.1041039201677509</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -2571,19 +2571,19 @@
         <v>16527</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9804</v>
+        <v>10091</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25601</v>
+        <v>26111</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1007604635680732</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0597689634627143</v>
+        <v>0.06152269409834394</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1560777539144704</v>
+        <v>0.1591889295247225</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -2592,19 +2592,19 @@
         <v>29325</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19429</v>
+        <v>19566</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>41082</v>
+        <v>41149</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0780992117300281</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05174255277549086</v>
+        <v>0.05210908885926296</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1094099120181953</v>
+        <v>0.1095880853107182</v>
       </c>
     </row>
     <row r="7">
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10828</v>
+        <v>10300</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009813508235861766</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05120328706713313</v>
+        <v>0.04870861397359242</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>67</v>
@@ -2642,19 +2642,19 @@
         <v>71513</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59215</v>
+        <v>59758</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>85221</v>
+        <v>85343</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4359864092120218</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3610127580132639</v>
+        <v>0.3643242238867194</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5195629330270369</v>
+        <v>0.5203039082640316</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -2663,19 +2663,19 @@
         <v>73588</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57403</v>
+        <v>59414</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>89457</v>
+        <v>90416</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1959797757797372</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1528756439504634</v>
+        <v>0.1582326669913399</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2382427911262543</v>
+        <v>0.2407956822925195</v>
       </c>
     </row>
     <row r="8">
@@ -2696,19 +2696,19 @@
         <v>43050</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33128</v>
+        <v>31190</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>57664</v>
+        <v>55192</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.174828443764888</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1345325145805739</v>
+        <v>0.1266637739245728</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2341734489324744</v>
+        <v>0.224136638488736</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -2717,19 +2717,19 @@
         <v>22760</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14316</v>
+        <v>15444</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>33947</v>
+        <v>34493</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1085122847648788</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06825359150477685</v>
+        <v>0.07363171363570412</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1618456881440927</v>
+        <v>0.164445988284883</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>61</v>
@@ -2738,19 +2738,19 @@
         <v>65811</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>52176</v>
+        <v>51523</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>82679</v>
+        <v>82811</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.144323989606969</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1144225353426296</v>
+        <v>0.112990976639877</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.181316149828681</v>
+        <v>0.1816060419700568</v>
       </c>
     </row>
     <row r="9">
@@ -2767,19 +2767,19 @@
         <v>179986</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>163858</v>
+        <v>165096</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>193549</v>
+        <v>194344</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7309301381547504</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6654337504444175</v>
+        <v>0.6704586136751866</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7860101255187177</v>
+        <v>0.7892363049656554</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>69</v>
@@ -2788,19 +2788,19 @@
         <v>75449</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>60718</v>
+        <v>61116</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>90084</v>
+        <v>90765</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3597085704400687</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2894782354346039</v>
+        <v>0.2913738732217168</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4294842661690545</v>
+        <v>0.432728469129035</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>230</v>
@@ -2809,19 +2809,19 @@
         <v>255435</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>234569</v>
+        <v>234326</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>278456</v>
+        <v>276866</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5601736971072261</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5144143853953471</v>
+        <v>0.5138808678046191</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6106595822831481</v>
+        <v>0.6071726538055779</v>
       </c>
     </row>
     <row r="10">
@@ -2838,19 +2838,19 @@
         <v>22243</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14148</v>
+        <v>12849</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34495</v>
+        <v>33303</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09032856262827402</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05745460157075375</v>
+        <v>0.0521809019146117</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1400868482021924</v>
+        <v>0.135245836356436</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -2859,19 +2859,19 @@
         <v>29907</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20960</v>
+        <v>19932</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43456</v>
+        <v>42235</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1425843483388778</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09992993078424757</v>
+        <v>0.09502600682066448</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2071801006594595</v>
+        <v>0.201359697520318</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -2880,19 +2880,19 @@
         <v>52150</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39127</v>
+        <v>38527</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68044</v>
+        <v>68649</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1143654526371621</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08580671090210734</v>
+        <v>0.08449035613724022</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1492222804577382</v>
+        <v>0.1505497778074103</v>
       </c>
     </row>
     <row r="11">
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5816</v>
+        <v>5157</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.003912855452087534</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02361732347100129</v>
+        <v>0.02094475182142586</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>79</v>
@@ -2930,19 +2930,19 @@
         <v>85957</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>71203</v>
+        <v>71595</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>101464</v>
+        <v>100497</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4098086734646369</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3394677324799931</v>
+        <v>0.3413339333361709</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.483735634842923</v>
+        <v>0.4791298793647336</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>80</v>
@@ -2951,19 +2951,19 @@
         <v>86921</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>69672</v>
+        <v>70936</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>104453</v>
+        <v>104593</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1906189397633505</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1527931221873457</v>
+        <v>0.1555633898274417</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2290675887971039</v>
+        <v>0.2293749077608935</v>
       </c>
     </row>
     <row r="12">
@@ -2984,19 +2984,19 @@
         <v>33770</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24278</v>
+        <v>23770</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>46723</v>
+        <v>45748</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2001320924351153</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1438769244469744</v>
+        <v>0.1408645327476477</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2768899936867289</v>
+        <v>0.2711138991385336</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -3005,19 +3005,19 @@
         <v>17614</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10024</v>
+        <v>10216</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29306</v>
+        <v>28311</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1191128188862782</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0677876219545225</v>
+        <v>0.06908778427143289</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.198184441012146</v>
+        <v>0.1914520753647376</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>45</v>
@@ -3026,19 +3026,19 @@
         <v>51384</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>37885</v>
+        <v>36850</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>67079</v>
+        <v>65742</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1622924360023359</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1196563897657049</v>
+        <v>0.116386816439961</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2118622715191924</v>
+        <v>0.2076417672126854</v>
       </c>
     </row>
     <row r="13">
@@ -3055,19 +3055,19 @@
         <v>123645</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>109742</v>
+        <v>110841</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>134873</v>
+        <v>134719</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.732750423127684</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6503589318288048</v>
+        <v>0.6568733417692455</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7992928839179306</v>
+        <v>0.7983768162429405</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -3076,19 +3076,19 @@
         <v>40624</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29771</v>
+        <v>29382</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52306</v>
+        <v>52574</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2747248395557006</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2013268372590747</v>
+        <v>0.1986967185635773</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3537206754813557</v>
+        <v>0.3555355825729244</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>144</v>
@@ -3097,19 +3097,19 @@
         <v>164269</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>145309</v>
+        <v>144899</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>183499</v>
+        <v>183664</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5188318089433694</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4589479424440502</v>
+        <v>0.457653229911075</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5795684057626528</v>
+        <v>0.5800881627287948</v>
       </c>
     </row>
     <row r="14">
@@ -3126,19 +3126,19 @@
         <v>11325</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5046</v>
+        <v>5448</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20034</v>
+        <v>21262</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06711748443720068</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02990663493877577</v>
+        <v>0.03228523387689312</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1187282382802671</v>
+        <v>0.1260031305954087</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -3147,19 +3147,19 @@
         <v>20773</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13438</v>
+        <v>12650</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31135</v>
+        <v>30526</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1404764920754391</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09087852126528403</v>
+        <v>0.08554549082669619</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.210549460039175</v>
+        <v>0.2064307831281775</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -3168,19 +3168,19 @@
         <v>32098</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21699</v>
+        <v>22243</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44508</v>
+        <v>46471</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1013794510494701</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06853451872356769</v>
+        <v>0.0702533932642347</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1405735773154209</v>
+        <v>0.1467763716173663</v>
       </c>
     </row>
     <row r="15">
@@ -3210,19 +3210,19 @@
         <v>69848</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>56876</v>
+        <v>58727</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>82102</v>
+        <v>82861</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.472351235803272</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3846278798393325</v>
+        <v>0.397141548859659</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5552168892859397</v>
+        <v>0.5603539508695368</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>63</v>
@@ -3231,19 +3231,19 @@
         <v>69848</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>55032</v>
+        <v>54996</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>85716</v>
+        <v>85203</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2206093401667029</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1738156491067698</v>
+        <v>0.1737003994898537</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2707286156206892</v>
+        <v>0.2691072436179195</v>
       </c>
     </row>
     <row r="16">
@@ -3264,19 +3264,19 @@
         <v>34093</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22136</v>
+        <v>23398</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46615</v>
+        <v>47410</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1393408133166247</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0904736470937811</v>
+        <v>0.09562979597656737</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1905222674997293</v>
+        <v>0.1937701959329382</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -3285,19 +3285,19 @@
         <v>24556</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16671</v>
+        <v>15910</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36456</v>
+        <v>35216</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1094125726161324</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07427696825910102</v>
+        <v>0.07088950382169927</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1624318180775984</v>
+        <v>0.1569091429756392</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -3306,19 +3306,19 @@
         <v>58649</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44859</v>
+        <v>44813</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>76567</v>
+        <v>75269</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1250220978615148</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09562576154957628</v>
+        <v>0.09552832486989317</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1632186957309813</v>
+        <v>0.1604522619525086</v>
       </c>
     </row>
     <row r="17">
@@ -3335,19 +3335,19 @@
         <v>197673</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>183030</v>
+        <v>182009</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>211520</v>
+        <v>209643</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8079149740974338</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7480700846854804</v>
+        <v>0.7438970944848339</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8645094623738703</v>
+        <v>0.8568405391662881</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>73</v>
@@ -3356,19 +3356,19 @@
         <v>79915</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>65648</v>
+        <v>65179</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>94844</v>
+        <v>95547</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3560692757954378</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.292500246199385</v>
+        <v>0.2904117015457791</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4225850372239229</v>
+        <v>0.4257154885969895</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>254</v>
@@ -3377,19 +3377,19 @@
         <v>277588</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>254090</v>
+        <v>256332</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>297502</v>
+        <v>300440</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5917362134295785</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5416449157616038</v>
+        <v>0.5464241857756618</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6341855687933022</v>
+        <v>0.6404493693276198</v>
       </c>
     </row>
     <row r="18">
@@ -3406,19 +3406,19 @@
         <v>12905</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7119</v>
+        <v>7153</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21803</v>
+        <v>21834</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05274421258594144</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02909830548909718</v>
+        <v>0.02923346135523635</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08911249855107858</v>
+        <v>0.08923669939786648</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>28</v>
@@ -3427,19 +3427,19 @@
         <v>28869</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20001</v>
+        <v>18904</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40937</v>
+        <v>38865</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1286275693628473</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08911480612306075</v>
+        <v>0.08422807357540514</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1823961069181842</v>
+        <v>0.1731670006869772</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>40</v>
@@ -3448,19 +3448,19 @@
         <v>41774</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>31417</v>
+        <v>29886</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>57401</v>
+        <v>56277</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08904946033975356</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06697223707976782</v>
+        <v>0.06370785319443396</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1223610224059746</v>
+        <v>0.1199659426496183</v>
       </c>
     </row>
     <row r="19">
@@ -3490,19 +3490,19 @@
         <v>96032</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>81140</v>
+        <v>82215</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>111027</v>
+        <v>110711</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4278777746792625</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3615246569591973</v>
+        <v>0.3663132201090016</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.494687511995007</v>
+        <v>0.4932824873997693</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>92</v>
@@ -3511,19 +3511,19 @@
         <v>96032</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>81069</v>
+        <v>78966</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116033</v>
+        <v>115556</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2047116690389751</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1728157726227812</v>
+        <v>0.1683317745230561</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2473471159214088</v>
+        <v>0.2463315803145405</v>
       </c>
     </row>
     <row r="20">
@@ -3544,7 +3544,7 @@
         <v>142949</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>122655</v>
+        <v>121132</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>166259</v>
@@ -3553,10 +3553,10 @@
         <v>0.1640990119750243</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1408017289999829</v>
+        <v>0.1390538884624981</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1908579410315716</v>
+        <v>0.1908580419640886</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>69</v>
@@ -3565,19 +3565,19 @@
         <v>78409</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>61792</v>
+        <v>61793</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>96313</v>
+        <v>98021</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1050939018470466</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08282129013605381</v>
+        <v>0.0828222943730213</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1290909552259382</v>
+        <v>0.1313796266793991</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>198</v>
@@ -3586,19 +3586,19 @@
         <v>221358</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>194701</v>
+        <v>192998</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>250629</v>
+        <v>252948</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.136877384938294</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1203935877595559</v>
+        <v>0.1193409914167878</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1549766888935842</v>
+        <v>0.1564107801828016</v>
       </c>
     </row>
     <row r="21">
@@ -3615,19 +3615,19 @@
         <v>665857</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>640382</v>
+        <v>638648</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>693599</v>
+        <v>691136</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7643722172471359</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7351277119032116</v>
+        <v>0.7331375675889042</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7962191315817851</v>
+        <v>0.7933918291184787</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>246</v>
@@ -3636,19 +3636,19 @@
         <v>265986</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>241166</v>
+        <v>239826</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>293982</v>
+        <v>293139</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3565079779123031</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3232415195280267</v>
+        <v>0.3214452472318024</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3940327921908051</v>
+        <v>0.3929030334993346</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>849</v>
@@ -3657,19 +3657,19 @@
         <v>931843</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>891489</v>
+        <v>894671</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>975160</v>
+        <v>976959</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5762066807247643</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5512540068406655</v>
+        <v>0.5532218172313791</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6029920275792126</v>
+        <v>0.6041042273084907</v>
       </c>
     </row>
     <row r="22">
@@ -3686,19 +3686,19 @@
         <v>59271</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44733</v>
+        <v>44727</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>76712</v>
+        <v>76245</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06804048855515352</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05135175608165145</v>
+        <v>0.05134418808501572</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08806155710320718</v>
+        <v>0.08752613757913985</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>88</v>
@@ -3707,19 +3707,19 @@
         <v>96076</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>77433</v>
+        <v>80554</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>114828</v>
+        <v>119100</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1287732025962496</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1037859800721784</v>
+        <v>0.1079687871258593</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1539071039322844</v>
+        <v>0.1596327032062562</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>140</v>
@@ -3728,19 +3728,19 @@
         <v>155347</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>132778</v>
+        <v>130267</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>184426</v>
+        <v>181203</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09605913451597543</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08210332864066042</v>
+        <v>0.08055102419779697</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1140403859354958</v>
+        <v>0.1120471750970513</v>
       </c>
     </row>
     <row r="23">
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13266</v>
+        <v>11196</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003488282222686253</v>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01522916494479359</v>
+        <v>0.01285292768263695</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>301</v>
@@ -3778,19 +3778,19 @@
         <v>323350</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>297891</v>
+        <v>296351</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>352856</v>
+        <v>352740</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4333951790317285</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3992711410524238</v>
+        <v>0.397207912069667</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4729422009320348</v>
+        <v>0.47278775187846</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>303</v>
@@ -3799,19 +3799,19 @@
         <v>326389</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>292579</v>
+        <v>293286</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>358528</v>
+        <v>358646</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2018230566188605</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1809168995807804</v>
+        <v>0.1813541235031616</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2216964280656009</v>
+        <v>0.2217693350566452</v>
       </c>
     </row>
     <row r="24">
@@ -4072,19 +4072,19 @@
         <v>15040</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8814</v>
+        <v>8460</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24235</v>
+        <v>23451</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07936891318694589</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04651431114321785</v>
+        <v>0.04464325801177547</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1278919801119896</v>
+        <v>0.1237580789085867</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4093,19 +4093,19 @@
         <v>13005</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7466</v>
+        <v>7148</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22296</v>
+        <v>22043</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08720785550315942</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05006961183460929</v>
+        <v>0.04793106457302711</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1495180388906799</v>
+        <v>0.1478201470399262</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -4114,19 +4114,19 @@
         <v>28044</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18449</v>
+        <v>19407</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39823</v>
+        <v>39794</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08282107836810906</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05448373607501517</v>
+        <v>0.05731393759466864</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1176061726717813</v>
+        <v>0.117520635846405</v>
       </c>
     </row>
     <row r="5">
@@ -4143,19 +4143,19 @@
         <v>163347</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>151662</v>
+        <v>151843</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>171875</v>
+        <v>172058</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8620283599689145</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8003586622350589</v>
+        <v>0.8013154119594446</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9070315998431117</v>
+        <v>0.9079943480339377</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>64</v>
@@ -4164,19 +4164,19 @@
         <v>69504</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57792</v>
+        <v>57899</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82990</v>
+        <v>81960</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4660889804228627</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3875528691990861</v>
+        <v>0.3882703473788418</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5565258000693227</v>
+        <v>0.5496189755957138</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>235</v>
@@ -4185,19 +4185,19 @@
         <v>232851</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>215891</v>
+        <v>213867</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>249923</v>
+        <v>248320</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6876619614443157</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6375733140170055</v>
+        <v>0.6315958077032069</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7380772726346144</v>
+        <v>0.7333432387439525</v>
       </c>
     </row>
     <row r="6">
@@ -4214,19 +4214,19 @@
         <v>11105</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5135</v>
+        <v>5510</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19589</v>
+        <v>20093</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05860272684413966</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02709951926126832</v>
+        <v>0.02907557280732988</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1033760899795881</v>
+        <v>0.1060384989993143</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -4235,19 +4235,19 @@
         <v>17084</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10864</v>
+        <v>10491</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27308</v>
+        <v>26656</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1145643105781986</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07285599911050138</v>
+        <v>0.07035331085067625</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1831275515255999</v>
+        <v>0.1787528401364654</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -4256,19 +4256,19 @@
         <v>28189</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19532</v>
+        <v>17984</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40765</v>
+        <v>39033</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08324745862764669</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05768197964239899</v>
+        <v>0.05311086761338197</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1203889179326243</v>
+        <v>0.1152739542531398</v>
       </c>
     </row>
     <row r="7">
@@ -4298,19 +4298,19 @@
         <v>51466</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39529</v>
+        <v>40040</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64208</v>
+        <v>64433</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3451288379988736</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2650788024557165</v>
+        <v>0.2685093607096139</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4305788081300979</v>
+        <v>0.4320879742151837</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -4319,19 +4319,19 @@
         <v>51466</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39100</v>
+        <v>40218</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65352</v>
+        <v>67291</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1519901167139246</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1154717506828594</v>
+        <v>0.1187721651210793</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1929981156439412</v>
+        <v>0.1987252707316867</v>
       </c>
     </row>
     <row r="8">
@@ -4352,19 +4352,19 @@
         <v>31201</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21880</v>
+        <v>21281</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>42637</v>
+        <v>42665</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1179121061646539</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0826875034699186</v>
+        <v>0.08042118107718431</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1611277396113049</v>
+        <v>0.1612338335711369</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -4373,19 +4373,19 @@
         <v>14272</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8046</v>
+        <v>8055</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23221</v>
+        <v>22986</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07000870099597471</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03946951022624998</v>
+        <v>0.03951138190486343</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.113909107172111</v>
+        <v>0.1127576772419111</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>42</v>
@@ -4394,19 +4394,19 @@
         <v>45473</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>33709</v>
+        <v>32734</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>60619</v>
+        <v>59309</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09706692840659487</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07195575257428542</v>
+        <v>0.06987365606567933</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1293988688309952</v>
+        <v>0.1266022475569046</v>
       </c>
     </row>
     <row r="9">
@@ -4423,19 +4423,19 @@
         <v>214101</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>200757</v>
+        <v>200635</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>226187</v>
+        <v>225068</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8091027643117364</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.758677399767186</v>
+        <v>0.7582159632019557</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8547785328110391</v>
+        <v>0.8505477378470436</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>80</v>
@@ -4444,19 +4444,19 @@
         <v>94150</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>80257</v>
+        <v>79778</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>110407</v>
+        <v>110735</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4618461966037636</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3936966771889185</v>
+        <v>0.3913444172912072</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5415942736745962</v>
+        <v>0.5432036483895684</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>296</v>
@@ -4465,19 +4465,19 @@
         <v>308250</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>283457</v>
+        <v>286070</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>326539</v>
+        <v>327962</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6579939891414275</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6050704000980828</v>
+        <v>0.610647375935597</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6970319717161884</v>
+        <v>0.7000701817457047</v>
       </c>
     </row>
     <row r="10">
@@ -4494,19 +4494,19 @@
         <v>18378</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11609</v>
+        <v>10823</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28501</v>
+        <v>27372</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06945349226994803</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04387094426702108</v>
+        <v>0.04090095369302955</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1077080735726208</v>
+        <v>0.1034401424587776</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -4515,19 +4515,19 @@
         <v>29122</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19721</v>
+        <v>19797</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40042</v>
+        <v>40760</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1428553353920866</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09673909496816421</v>
+        <v>0.09711518638810884</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1964226923126359</v>
+        <v>0.1999462531548312</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -4536,19 +4536,19 @@
         <v>47500</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35468</v>
+        <v>34422</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61494</v>
+        <v>61874</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1013943211580488</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07570989761566467</v>
+        <v>0.07347678576974948</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1312666205613772</v>
+        <v>0.1320758723281572</v>
       </c>
     </row>
     <row r="11">
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5578</v>
+        <v>4264</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.003531637253661591</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02107790699915287</v>
+        <v>0.0161122734679052</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>58</v>
@@ -4586,19 +4586,19 @@
         <v>69291</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>55072</v>
+        <v>54050</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>83956</v>
+        <v>83755</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.339905437885116</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2701514834683157</v>
+        <v>0.265140268847662</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4118420017996078</v>
+        <v>0.4108535176043279</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>59</v>
@@ -4607,19 +4607,19 @@
         <v>70226</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>54298</v>
+        <v>53975</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>88108</v>
+        <v>87058</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1499047738318751</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1159045321647557</v>
+        <v>0.1152149208229526</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1880758233035022</v>
+        <v>0.1858354119034129</v>
       </c>
     </row>
     <row r="12">
@@ -4640,19 +4640,19 @@
         <v>14510</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8251</v>
+        <v>8084</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23879</v>
+        <v>22919</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07969253606531836</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04531833706839059</v>
+        <v>0.04440284640391191</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1311501762573664</v>
+        <v>0.1258798650427853</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -4661,19 +4661,19 @@
         <v>11480</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6103</v>
+        <v>5928</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20401</v>
+        <v>20126</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08475133481462807</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04505487308027067</v>
+        <v>0.04376320178352996</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1506102493007254</v>
+        <v>0.1485850503422992</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -4682,19 +4682,19 @@
         <v>25990</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17092</v>
+        <v>17414</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>37839</v>
+        <v>38311</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08185058060456397</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05382752692006871</v>
+        <v>0.05484348115676527</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1191677497391709</v>
+        <v>0.1206553443873055</v>
       </c>
     </row>
     <row r="13">
@@ -4711,19 +4711,19 @@
         <v>155585</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>144902</v>
+        <v>144081</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>164827</v>
+        <v>164696</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8545282835574757</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7958567428681816</v>
+        <v>0.7913451162424316</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9052888134441603</v>
+        <v>0.9045709570901316</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -4732,19 +4732,19 @@
         <v>57575</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44667</v>
+        <v>45401</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69755</v>
+        <v>70350</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4250536145857556</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3297559616134594</v>
+        <v>0.3351752109970441</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5149735164693983</v>
+        <v>0.5193666581633608</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>198</v>
@@ -4753,19 +4753,19 @@
         <v>213160</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>193638</v>
+        <v>195562</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>228467</v>
+        <v>230911</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6713177013525181</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6098369578340614</v>
+        <v>0.6158947215578232</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7195238682862384</v>
+        <v>0.7272206186809707</v>
       </c>
     </row>
     <row r="14">
@@ -4782,19 +4782,19 @@
         <v>11976</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5812</v>
+        <v>6330</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20554</v>
+        <v>19783</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.065779180377206</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03191921032491103</v>
+        <v>0.03476838733320207</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1128904457501037</v>
+        <v>0.108657013011843</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -4803,19 +4803,19 @@
         <v>13515</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7576</v>
+        <v>7167</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22420</v>
+        <v>21469</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0997790347511972</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05593018807825302</v>
+        <v>0.05290772819099383</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1655158375797976</v>
+        <v>0.1584978349328508</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -4824,19 +4824,19 @@
         <v>25492</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16823</v>
+        <v>17169</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37001</v>
+        <v>36631</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08028325608825305</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05298037154623463</v>
+        <v>0.05407172270227505</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1165303087580449</v>
+        <v>0.1153651221145994</v>
       </c>
     </row>
     <row r="15">
@@ -4866,19 +4866,19 @@
         <v>54230</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>42943</v>
+        <v>42231</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>68003</v>
+        <v>65873</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4003606682086035</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3170270390941891</v>
+        <v>0.3117703565430209</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.502039078676447</v>
+        <v>0.4863106877494061</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>44</v>
@@ -4887,19 +4887,19 @@
         <v>54230</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>41214</v>
+        <v>39977</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>69955</v>
+        <v>68436</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1707907739706391</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1297972156503691</v>
+        <v>0.1259026065006323</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2203119712283502</v>
+        <v>0.2155289905891352</v>
       </c>
     </row>
     <row r="16">
@@ -4920,19 +4920,19 @@
         <v>27557</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18719</v>
+        <v>19407</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39549</v>
+        <v>41181</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1039675851150362</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07062473683985598</v>
+        <v>0.07321990330046617</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1492092337405306</v>
+        <v>0.1553672975900345</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -4941,19 +4941,19 @@
         <v>14847</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8503</v>
+        <v>8229</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24372</v>
+        <v>24164</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05972131733800352</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03420080669355927</v>
+        <v>0.03310152054725403</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09803276233038062</v>
+        <v>0.09719476021996207</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -4962,19 +4962,19 @@
         <v>42405</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31337</v>
+        <v>31068</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56863</v>
+        <v>56050</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08255257887709662</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06100657836204906</v>
+        <v>0.06048279384577025</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1106996598204729</v>
+        <v>0.1091172428170969</v>
       </c>
     </row>
     <row r="17">
@@ -4991,19 +4991,19 @@
         <v>219585</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>204711</v>
+        <v>203454</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>229881</v>
+        <v>230622</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8284538818174338</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7723354839822797</v>
+        <v>0.7675946994354179</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8672978013973165</v>
+        <v>0.8700932737019264</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>82</v>
@@ -5012,19 +5012,19 @@
         <v>96985</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>81036</v>
+        <v>81710</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>115113</v>
+        <v>114603</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3901047940222772</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3259529822344069</v>
+        <v>0.3286616893145193</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4630194998448244</v>
+        <v>0.4609683402911114</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>312</v>
@@ -5033,19 +5033,19 @@
         <v>316570</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>297012</v>
+        <v>293486</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>341782</v>
+        <v>338305</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6162947795665288</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5782197582300673</v>
+        <v>0.5713545323899555</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6653759813283922</v>
+        <v>0.6586083644792832</v>
       </c>
     </row>
     <row r="18">
@@ -5062,19 +5062,19 @@
         <v>17912</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11272</v>
+        <v>11038</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27678</v>
+        <v>27748</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06757853306752992</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04252844249015957</v>
+        <v>0.04164535625492761</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1044254558673469</v>
+        <v>0.1046890008577292</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>44</v>
@@ -5083,19 +5083,19 @@
         <v>48666</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36855</v>
+        <v>35886</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63934</v>
+        <v>63692</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1957492016954467</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1482406464103763</v>
+        <v>0.1443463611290985</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2571631325121607</v>
+        <v>0.2561885181313182</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>61</v>
@@ -5104,19 +5104,19 @@
         <v>66578</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>51581</v>
+        <v>52174</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>83664</v>
+        <v>83067</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1296125939293249</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1004168708210919</v>
+        <v>0.1015717059469391</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1628763921432064</v>
+        <v>0.1617139163305887</v>
       </c>
     </row>
     <row r="19">
@@ -5146,19 +5146,19 @@
         <v>89490</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>72845</v>
+        <v>72382</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>106356</v>
+        <v>106154</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3599585241274434</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.293007292076981</v>
+        <v>0.2911437477784854</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4277983264183595</v>
+        <v>0.4269849477868859</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>72</v>
@@ -5167,19 +5167,19 @@
         <v>89490</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71589</v>
+        <v>71215</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>108670</v>
+        <v>109591</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1742184013900051</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1393684168350839</v>
+        <v>0.1386405315739126</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2115573432929431</v>
+        <v>0.2133502314692555</v>
       </c>
     </row>
     <row r="20">
@@ -5200,19 +5200,19 @@
         <v>88308</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>71421</v>
+        <v>71134</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>107959</v>
+        <v>108078</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09798565194205118</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07924797404986965</v>
+        <v>0.07892967107060074</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1197906245593155</v>
+        <v>0.1199222278753561</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -5221,19 +5221,19 @@
         <v>53603</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>39801</v>
+        <v>40300</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>69152</v>
+        <v>69067</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07272783861075721</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05400155661627228</v>
+        <v>0.0546778712543319</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09382418150268458</v>
+        <v>0.09370840149034666</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>129</v>
@@ -5242,19 +5242,19 @@
         <v>141911</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>119826</v>
+        <v>121065</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>168147</v>
+        <v>168421</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08662244059720534</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07314175485620428</v>
+        <v>0.0738976741931181</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1026365027858154</v>
+        <v>0.102803927804984</v>
       </c>
     </row>
     <row r="21">
@@ -5271,19 +5271,19 @@
         <v>752619</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>728582</v>
+        <v>728215</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>775721</v>
+        <v>776323</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8350991170595234</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8084283891039097</v>
+        <v>0.8080205833460281</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8607332809633877</v>
+        <v>0.8614011062200717</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>275</v>
@@ -5292,19 +5292,19 @@
         <v>318213</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>290505</v>
+        <v>289624</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>346154</v>
+        <v>346223</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4317436611666445</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3941497495051181</v>
+        <v>0.3929548177986558</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4696533886420135</v>
+        <v>0.469747276393998</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1041</v>
@@ -5313,19 +5313,19 @@
         <v>1070832</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1025664</v>
+        <v>1031420</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1110123</v>
+        <v>1108763</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6536339509230447</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.626063172720514</v>
+        <v>0.6295766450838158</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6776167651800175</v>
+        <v>0.6767869663156516</v>
       </c>
     </row>
     <row r="22">
@@ -5342,19 +5342,19 @@
         <v>59372</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>45202</v>
+        <v>46219</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>75899</v>
+        <v>76049</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06587829093120284</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05015537145719674</v>
+        <v>0.05128401881280647</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08421653487939723</v>
+        <v>0.08438279717292076</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>99</v>
@@ -5363,19 +5363,19 @@
         <v>108387</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>91792</v>
+        <v>90045</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>130375</v>
+        <v>129469</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1470565483102262</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1245413684444014</v>
+        <v>0.1221704333870897</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1768892627159373</v>
+        <v>0.1756601815752476</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>154</v>
@@ -5384,19 +5384,19 @@
         <v>167759</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>144061</v>
+        <v>143448</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>195526</v>
+        <v>191991</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1023994926324301</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08793467438462153</v>
+        <v>0.08756012604729652</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1193484425406994</v>
+        <v>0.1171908669449161</v>
       </c>
     </row>
     <row r="23">
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4678</v>
+        <v>4701</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.001036940067222523</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.005190194607655351</v>
+        <v>0.005216628027771099</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>220</v>
@@ -5434,19 +5434,19 @@
         <v>264478</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>237095</v>
+        <v>236640</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>292585</v>
+        <v>292901</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3588368610137004</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3216843490575569</v>
+        <v>0.3210665372715517</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3969721704478334</v>
+        <v>0.3974006502527034</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>221</v>
@@ -5455,19 +5455,19 @@
         <v>265412</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>233052</v>
+        <v>234152</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>300481</v>
+        <v>298417</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1620071740124772</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1422545171796998</v>
+        <v>0.1429257416531619</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.183413171121515</v>
+        <v>0.1821534292901136</v>
       </c>
     </row>
     <row r="24">
@@ -5728,19 +5728,19 @@
         <v>4446</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1891</v>
+        <v>1619</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10476</v>
+        <v>9894</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02261080276512984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009617211939079466</v>
+        <v>0.00823602044479336</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05328056009397008</v>
+        <v>0.05031968879097955</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>186</v>
@@ -5749,19 +5749,19 @@
         <v>81496</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>71812</v>
+        <v>72430</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90779</v>
+        <v>90521</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4495265440948764</v>
+        <v>0.4495265440948765</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3961083178972314</v>
+        <v>0.3995161078255436</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5007283926153031</v>
+        <v>0.4993066826359394</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>192</v>
@@ -5770,19 +5770,19 @@
         <v>85942</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>74068</v>
+        <v>73930</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97596</v>
+        <v>97784</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2274097070586414</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1959898209471401</v>
+        <v>0.1956240448621158</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2582477687142032</v>
+        <v>0.2587447541533363</v>
       </c>
     </row>
     <row r="5">
@@ -5799,19 +5799,19 @@
         <v>108013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>94492</v>
+        <v>94352</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>119849</v>
+        <v>119917</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5493377398074331</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4805695465748299</v>
+        <v>0.4798620641242432</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6095323388513452</v>
+        <v>0.6098791099666735</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>120</v>
@@ -5820,19 +5820,19 @@
         <v>52961</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>45098</v>
+        <v>45073</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>61521</v>
+        <v>61864</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2921264998073824</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2487546402736769</v>
+        <v>0.2486195903384685</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3393418673818386</v>
+        <v>0.3412378409572034</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>277</v>
@@ -5841,19 +5841,19 @@
         <v>160974</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>146732</v>
+        <v>145344</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>177038</v>
+        <v>175834</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4259490356104173</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3882646631754776</v>
+        <v>0.3845923285969931</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4684573448608712</v>
+        <v>0.4652693273926739</v>
       </c>
     </row>
     <row r="6">
@@ -5870,19 +5870,19 @@
         <v>45020</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35281</v>
+        <v>34676</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57308</v>
+        <v>56635</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2289627204608849</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1794359742342789</v>
+        <v>0.1763555760247819</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2914618169250429</v>
+        <v>0.2880348739031551</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>58</v>
@@ -5891,19 +5891,19 @@
         <v>32015</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25185</v>
+        <v>25269</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40513</v>
+        <v>40212</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1765935974864997</v>
+        <v>0.1765935974864998</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1389172908392066</v>
+        <v>0.1393824373660774</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2234645047543515</v>
+        <v>0.2218051840425311</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>114</v>
@@ -5912,19 +5912,19 @@
         <v>77035</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>64158</v>
+        <v>63866</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>90128</v>
+        <v>90235</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2038403415798442</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1697669657095948</v>
+        <v>0.1689933074127368</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2384849412409258</v>
+        <v>0.2387700470416765</v>
       </c>
     </row>
     <row r="7">
@@ -5941,19 +5941,19 @@
         <v>39146</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30222</v>
+        <v>30249</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50049</v>
+        <v>49625</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1990887369665523</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1537060629649355</v>
+        <v>0.1538408819945004</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2545425550404393</v>
+        <v>0.2523835032342311</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -5962,19 +5962,19 @@
         <v>14821</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10437</v>
+        <v>10429</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20637</v>
+        <v>20235</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08175335861124146</v>
+        <v>0.08175335861124147</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05756885382890502</v>
+        <v>0.05752783311309041</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1138333593335037</v>
+        <v>0.1116170241076996</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>90</v>
@@ -5983,19 +5983,19 @@
         <v>53967</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43742</v>
+        <v>44184</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>66000</v>
+        <v>65277</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1428009157510972</v>
+        <v>0.1428009157510971</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1157450883816439</v>
+        <v>0.1169142788351569</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1746403181684307</v>
+        <v>0.1727282128347217</v>
       </c>
     </row>
     <row r="8">
@@ -6029,19 +6029,19 @@
         <v>88633</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>78201</v>
+        <v>77089</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>99480</v>
+        <v>99262</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4356308423948894</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3843572249075234</v>
+        <v>0.37889027219607</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4889415403375802</v>
+        <v>0.4878722274868313</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>160</v>
@@ -6050,19 +6050,19 @@
         <v>88633</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>76381</v>
+        <v>75422</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>101204</v>
+        <v>100423</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2095343567185254</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1805686465771604</v>
+        <v>0.1783016696669965</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2392514999678814</v>
+        <v>0.2374054187957732</v>
       </c>
     </row>
     <row r="9">
@@ -6079,19 +6079,19 @@
         <v>116269</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>102254</v>
+        <v>102877</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>128635</v>
+        <v>129049</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5296006969433609</v>
+        <v>0.529600696943361</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4657630225038739</v>
+        <v>0.4685983899521881</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5859272957397603</v>
+        <v>0.5878134944796962</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>106</v>
@@ -6100,19 +6100,19 @@
         <v>58586</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>49705</v>
+        <v>49383</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>69373</v>
+        <v>68905</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2879510615562849</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2443013384771545</v>
+        <v>0.242715004164096</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3409697252226866</v>
+        <v>0.3386684251021327</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>262</v>
@@ -6121,19 +6121,19 @@
         <v>174856</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>158904</v>
+        <v>157056</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>193190</v>
+        <v>190894</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4133694847001317</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3756590986375822</v>
+        <v>0.3712909933194287</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4567138433690812</v>
+        <v>0.4512857724669231</v>
       </c>
     </row>
     <row r="10">
@@ -6150,19 +6150,19 @@
         <v>69863</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58156</v>
+        <v>58437</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82026</v>
+        <v>83084</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3182217579580359</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2648968339313113</v>
+        <v>0.266177461111789</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.373624707326551</v>
+        <v>0.3784445991183375</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -6171,19 +6171,19 @@
         <v>40685</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32654</v>
+        <v>32091</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50777</v>
+        <v>50563</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1999677124868497</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1604955592300532</v>
+        <v>0.1577294011148313</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2495675240357945</v>
+        <v>0.2485179019738924</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>157</v>
@@ -6192,19 +6192,19 @@
         <v>110548</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>96576</v>
+        <v>95818</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126081</v>
+        <v>125788</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2613426692072278</v>
+        <v>0.2613426692072277</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2283125317690551</v>
+        <v>0.2265199193889138</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2980625762170003</v>
+        <v>0.2973710464222095</v>
       </c>
     </row>
     <row r="11">
@@ -6221,19 +6221,19 @@
         <v>33409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24387</v>
+        <v>24223</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>44597</v>
+        <v>44350</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1521775450986031</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.111080060603951</v>
+        <v>0.1103336609474398</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2031362778999074</v>
+        <v>0.2020144406667503</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -6242,19 +6242,19 @@
         <v>15555</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10356</v>
+        <v>10618</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21859</v>
+        <v>22295</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.07645038356197593</v>
+        <v>0.07645038356197592</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05089804833634159</v>
+        <v>0.05218978664004883</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1074371200868965</v>
+        <v>0.1095790644394144</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>66</v>
@@ -6263,19 +6263,19 @@
         <v>48964</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>38571</v>
+        <v>38713</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>62931</v>
+        <v>61609</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1157534893741153</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09118301328607985</v>
+        <v>0.09151958626373215</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.148771953464464</v>
+        <v>0.1456477465702975</v>
       </c>
     </row>
     <row r="12">
@@ -6296,19 +6296,19 @@
         <v>4431</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1316</v>
+        <v>1612</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10202</v>
+        <v>10736</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01956477946141055</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005810365045547135</v>
+        <v>0.007116282118113406</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04504940676698384</v>
+        <v>0.0474100817411219</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>86</v>
@@ -6317,19 +6317,19 @@
         <v>55167</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>45685</v>
+        <v>45043</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>65064</v>
+        <v>65074</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.33981388846533</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2814058808269556</v>
+        <v>0.2774536316552441</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4007778877000719</v>
+        <v>0.4008374750429964</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>91</v>
@@ -6338,19 +6338,19 @@
         <v>59597</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>48141</v>
+        <v>47236</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72847</v>
+        <v>71661</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.153286538065087</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1238206052088039</v>
+        <v>0.1214915862306362</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1873639688712729</v>
+        <v>0.1843144344823871</v>
       </c>
     </row>
     <row r="13">
@@ -6367,19 +6367,19 @@
         <v>119295</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>104817</v>
+        <v>104932</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>134249</v>
+        <v>135045</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5267972353331345</v>
+        <v>0.5267972353331346</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4628659176126665</v>
+        <v>0.4633713528314616</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5928321987275164</v>
+        <v>0.5963482413572415</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -6388,19 +6388,19 @@
         <v>48504</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39128</v>
+        <v>40722</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58191</v>
+        <v>58905</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2987696123093552</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2410175047425448</v>
+        <v>0.250834894822708</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.358441870712039</v>
+        <v>0.3628374368295586</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>211</v>
@@ -6409,19 +6409,19 @@
         <v>167799</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>150434</v>
+        <v>149074</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>187188</v>
+        <v>184419</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4315830601686917</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3869201847654545</v>
+        <v>0.383422363517232</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.481453568106469</v>
+        <v>0.4743301078017763</v>
       </c>
     </row>
     <row r="14">
@@ -6438,19 +6438,19 @@
         <v>72472</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>59817</v>
+        <v>58679</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>86396</v>
+        <v>86930</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3200290933984618</v>
+        <v>0.3200290933984619</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2641478198747566</v>
+        <v>0.259121121989981</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3815162673514144</v>
+        <v>0.3838748968755998</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -6459,19 +6459,19 @@
         <v>38060</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28922</v>
+        <v>29570</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>47963</v>
+        <v>47241</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2344401231792967</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1781542898539762</v>
+        <v>0.1821433116468578</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2954409995223941</v>
+        <v>0.2909906015283497</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>133</v>
@@ -6480,19 +6480,19 @@
         <v>110532</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>94357</v>
+        <v>93402</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>126541</v>
+        <v>126428</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2842909530164869</v>
+        <v>0.284290953016487</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2426881465442504</v>
+        <v>0.2402319408002796</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3254661224518635</v>
+        <v>0.3251773918938163</v>
       </c>
     </row>
     <row r="15">
@@ -6509,19 +6509,19 @@
         <v>30256</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21147</v>
+        <v>20541</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>42141</v>
+        <v>41045</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1336088918069931</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09338367149272875</v>
+        <v>0.09070734592151346</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1860914194498657</v>
+        <v>0.1812530106028014</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>31</v>
@@ -6530,19 +6530,19 @@
         <v>20614</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14831</v>
+        <v>14266</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>28609</v>
+        <v>28006</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1269763760460181</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09135203851449383</v>
+        <v>0.08787449903260035</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1762245882942275</v>
+        <v>0.1725118204790679</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>60</v>
@@ -6551,19 +6551,19 @@
         <v>50870</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>39601</v>
+        <v>40576</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>64218</v>
+        <v>64636</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1308394487497344</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1018559946788953</v>
+        <v>0.1043639435551209</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1651707231562121</v>
+        <v>0.1662444991436741</v>
       </c>
     </row>
     <row r="16">
@@ -6584,19 +6584,19 @@
         <v>2765</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7797</v>
+        <v>7527</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01192588029058676</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003102374271571572</v>
+        <v>0.003096789066464701</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03363417815001511</v>
+        <v>0.03246562585503279</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>143</v>
@@ -6605,19 +6605,19 @@
         <v>85910</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74633</v>
+        <v>74478</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97767</v>
+        <v>97482</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3346046873240856</v>
+        <v>0.3346046873240857</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2906812794993854</v>
+        <v>0.2900784577544609</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3807854068101001</v>
+        <v>0.3796760601182056</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>146</v>
@@ -6626,19 +6626,19 @@
         <v>88675</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>76273</v>
+        <v>75209</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>103252</v>
+        <v>103302</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1814941344111068</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1561116382000335</v>
+        <v>0.1539336685190997</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2113296069162766</v>
+        <v>0.211431569067886</v>
       </c>
     </row>
     <row r="17">
@@ -6655,19 +6655,19 @@
         <v>114121</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>102164</v>
+        <v>99662</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>125984</v>
+        <v>126363</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4922611356242002</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4406823657134613</v>
+        <v>0.4298906940493674</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5434313290300109</v>
+        <v>0.5450635805676328</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>164</v>
@@ -6676,19 +6676,19 @@
         <v>97568</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>85056</v>
+        <v>85809</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>110123</v>
+        <v>109669</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3800110890835997</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3312785520815674</v>
+        <v>0.3342122319881211</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4289100363953057</v>
+        <v>0.4271415629617167</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>329</v>
@@ -6697,19 +6697,19 @@
         <v>211690</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>192946</v>
+        <v>193931</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>228357</v>
+        <v>230253</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4332735479613366</v>
+        <v>0.4332735479613365</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3949109806207574</v>
+        <v>0.3969269748589023</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4673880082885925</v>
+        <v>0.4712674720018442</v>
       </c>
     </row>
     <row r="18">
@@ -6726,19 +6726,19 @@
         <v>82381</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>71163</v>
+        <v>71195</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>93993</v>
+        <v>97804</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3553493714992733</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3069627211829122</v>
+        <v>0.3070999108211596</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4054381291465841</v>
+        <v>0.4218775601297923</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>91</v>
@@ -6747,19 +6747,19 @@
         <v>58099</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48459</v>
+        <v>47793</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>69443</v>
+        <v>69196</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.226283673139346</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1887388929551403</v>
+        <v>0.1861448116941389</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2704676541413308</v>
+        <v>0.2695059495331831</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>209</v>
@@ -6768,19 +6768,19 @@
         <v>140480</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>125176</v>
+        <v>124835</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>157332</v>
+        <v>158689</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2875251306111307</v>
+        <v>0.2875251306111306</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2562027526476863</v>
+        <v>0.2555045128255092</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.322016924425569</v>
+        <v>0.3247945298405595</v>
       </c>
     </row>
     <row r="19">
@@ -6797,19 +6797,19 @@
         <v>32564</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24143</v>
+        <v>24125</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43032</v>
+        <v>43769</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1404636125859398</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1041390996247112</v>
+        <v>0.1040630773301044</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1856201106194317</v>
+        <v>0.1887985000548358</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -6818,19 +6818,19 @@
         <v>15174</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10453</v>
+        <v>9737</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22401</v>
+        <v>21693</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05910055045296872</v>
+        <v>0.05910055045296871</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0407121963549391</v>
+        <v>0.03792445472295979</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08724921068467945</v>
+        <v>0.08449175028196597</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -6839,19 +6839,19 @@
         <v>47738</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38002</v>
+        <v>36215</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>59714</v>
+        <v>59094</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09770718701642599</v>
+        <v>0.09770718701642597</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07777990144929407</v>
+        <v>0.07412317329078552</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1222197224501517</v>
+        <v>0.1209501471520607</v>
       </c>
     </row>
     <row r="20">
@@ -6872,19 +6872,19 @@
         <v>11641</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6059</v>
+        <v>6560</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19069</v>
+        <v>19479</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01331251390920673</v>
+        <v>0.01331251390920672</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006928395101279921</v>
+        <v>0.007501934307893181</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02180632796378092</v>
+        <v>0.02227525554702169</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>575</v>
@@ -6893,19 +6893,19 @@
         <v>311206</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>290342</v>
+        <v>291613</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>331598</v>
+        <v>334362</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3871456996614392</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3611902687530758</v>
+        <v>0.3627717245537423</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4125137181140916</v>
+        <v>0.4159522682061109</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>589</v>
@@ -6914,19 +6914,19 @@
         <v>322848</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>298087</v>
+        <v>299068</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>347222</v>
+        <v>349851</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1923660332030919</v>
+        <v>0.1923660332030918</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1776124705650817</v>
+        <v>0.1781974152921591</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2068893189570536</v>
+        <v>0.2084555478946757</v>
       </c>
     </row>
     <row r="21">
@@ -6943,19 +6943,19 @@
         <v>457699</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>432318</v>
+        <v>430809</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>482872</v>
+        <v>485213</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5234133098570695</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4943884720515848</v>
+        <v>0.4926624636743806</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5522007577735325</v>
+        <v>0.5548775517660282</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>467</v>
@@ -6964,19 +6964,19 @@
         <v>257619</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>237429</v>
+        <v>238106</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>277978</v>
+        <v>277731</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3204818153668251</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.295365616729426</v>
+        <v>0.2962072901321138</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.345808937132716</v>
+        <v>0.3455023967037028</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1079</v>
@@ -6985,19 +6985,19 @@
         <v>715317</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>683047</v>
+        <v>681769</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>751808</v>
+        <v>753475</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4262159511182221</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4069880697762037</v>
+        <v>0.4062266150822802</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4479586011921285</v>
+        <v>0.4489520418757255</v>
       </c>
     </row>
     <row r="22">
@@ -7014,19 +7014,19 @@
         <v>269735</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>247143</v>
+        <v>243505</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>294812</v>
+        <v>296203</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3084626566199654</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2826263671005508</v>
+        <v>0.2784663047855932</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.337140433309432</v>
+        <v>0.3387306457656716</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>270</v>
@@ -7035,19 +7035,19 @@
         <v>168859</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>152177</v>
+        <v>149448</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>188514</v>
+        <v>186428</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2100634886718032</v>
+        <v>0.2100634886718031</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1893105661739476</v>
+        <v>0.1859153307906549</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2345141267829972</v>
+        <v>0.2319198740577479</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>613</v>
@@ -7056,19 +7056,19 @@
         <v>438594</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>407216</v>
+        <v>408455</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>466581</v>
+        <v>469705</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.261332765566404</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2426364245692431</v>
+        <v>0.24337427363028</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2780085145102574</v>
+        <v>0.2798699980035659</v>
       </c>
     </row>
     <row r="23">
@@ -7085,19 +7085,19 @@
         <v>135375</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>116389</v>
+        <v>116560</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>156347</v>
+        <v>156497</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1548115196137584</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.133099822047573</v>
+        <v>0.1332956948280558</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1787948652050609</v>
+        <v>0.1789659063550549</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>113</v>
@@ -7106,19 +7106,19 @@
         <v>66164</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>54731</v>
+        <v>54567</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>79943</v>
+        <v>78894</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08230899629993271</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.068085688890598</v>
+        <v>0.06788268594634835</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09944979418986008</v>
+        <v>0.09814593360435141</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>279</v>
@@ -7127,19 +7127,19 @@
         <v>201539</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>179503</v>
+        <v>179486</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>225572</v>
+        <v>227753</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1200852501122822</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1069552107244587</v>
+        <v>0.1069449675918613</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1344051647187526</v>
+        <v>0.1357049316735988</v>
       </c>
     </row>
     <row r="24">
